--- a/금융위원회_기업기본정보.xlsx
+++ b/금융위원회_기업기본정보.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reejungkim/Documents/Git/OpenAPI_Ministry_of_land/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0463D5-464A-0444-82B1-A0E938230B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D56F5-0FDA-CB4D-889B-0EB037EEF639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53380" yWindow="-3180" windowWidth="24180" windowHeight="18220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="26860" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="계열사 회사 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="기업개요 조회" sheetId="2" r:id="rId2"/>
+    <sheet name="기업개요 조회" sheetId="2" r:id="rId1"/>
+    <sheet name="계열사 회사 조회" sheetId="1" r:id="rId2"/>
     <sheet name="연결대상 종속기업 조회" sheetId="3" r:id="rId3"/>
     <sheet name="기업요약재무제표" sheetId="4" r:id="rId4"/>
+    <sheet name="빅랩 테이블" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="823">
   <si>
     <t>afilCmpyCrno</t>
   </si>
@@ -2474,17 +2473,57 @@
   </si>
   <si>
     <t>2021년 30건</t>
+  </si>
+  <si>
+    <t>빅랩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금가입_사업장내역</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록번호가 10자리 중 첫 6자리만 존재</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시정보_기업개황</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목코드, 사업자등록번호, 법인등록번호 모두 존재. 매핑테이블로 사용 또는 원본 테이블로 사용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업공시정보_주소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시정보_사업보고서_직원현황</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2531,6 +2570,13 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2587,7 +2633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2600,7 +2646,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2608,14 +2654,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2914,639 +2963,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="8">
-        <v>400</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="8">
-        <v>4</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="8">
-        <v>10</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="8">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="8">
-        <v>20200517</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="8">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1101110028939</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="17" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="3">
-        <v>50</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="3">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D34" s="3">
-        <v>4</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="3">
-        <v>20200423</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1353110003920</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>13</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1353110003920</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C05F39-2FE7-164E-82D1-C86B85CDB1BB}">
   <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="7" max="7" width="74" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="69.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.1640625" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" customWidth="1"/>
+    <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -3557,7 +2995,7 @@
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37">
       <c r="B1" t="s">
         <v>310</v>
       </c>
@@ -3667,7 +3105,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
@@ -3777,7 +3215,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3845,7 +3283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3910,7 +3348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3978,7 +3416,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4046,7 +3484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4117,7 +3555,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4188,7 +3626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4256,7 +3694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4324,7 +3762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4392,7 +3830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4457,12 +3895,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="20">
       <c r="B18" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="7" t="s">
         <v>202</v>
       </c>
@@ -4482,7 +3920,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
         <v>234</v>
       </c>
@@ -4502,7 +3940,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
         <v>216</v>
       </c>
@@ -4522,7 +3960,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="8" t="s">
         <v>214</v>
       </c>
@@ -4542,7 +3980,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
         <v>237</v>
       </c>
@@ -4562,7 +4000,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="8" t="s">
         <v>221</v>
       </c>
@@ -4582,7 +4020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
         <v>223</v>
       </c>
@@ -4602,7 +4040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
         <v>243</v>
       </c>
@@ -4622,7 +4060,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -4630,12 +4068,12 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="20">
       <c r="B28" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="7" t="s">
         <v>202</v>
       </c>
@@ -4655,7 +4093,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="8" t="s">
         <v>208</v>
       </c>
@@ -4678,7 +4116,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="8" t="s">
         <v>211</v>
       </c>
@@ -4701,7 +4139,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="8" t="s">
         <v>214</v>
       </c>
@@ -4724,7 +4162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="8" t="s">
         <v>216</v>
       </c>
@@ -4747,7 +4185,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34" s="8" t="s">
         <v>219</v>
       </c>
@@ -4770,7 +4208,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="8" t="s">
         <v>221</v>
       </c>
@@ -4793,7 +4231,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36" s="9" t="s">
         <v>223</v>
       </c>
@@ -4816,7 +4254,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" s="8" t="s">
         <v>243</v>
       </c>
@@ -4839,7 +4277,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38" s="8" t="s">
         <v>246</v>
       </c>
@@ -4862,7 +4300,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39" s="8" t="s">
         <v>249</v>
       </c>
@@ -4885,7 +4323,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="B40" s="8" t="s">
         <v>251</v>
       </c>
@@ -4908,122 +4346,122 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="2:8">
+      <c r="B41" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>1</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="9" t="s">
         <v>255</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="2:8">
+      <c r="B42" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>100</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>257</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="2:8">
+      <c r="B43" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>2</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="9">
         <v>13</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="9" t="s">
         <v>259</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="2:8">
+      <c r="B44" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>100</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>260</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="2:8">
+      <c r="B45" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>10</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <v>1078708658</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>263</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="B46" s="8" t="s">
         <v>264</v>
       </c>
@@ -5046,53 +4484,53 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="2:8">
+      <c r="B47" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>500</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>268</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="2:8">
+      <c r="B48" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>500</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>270</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="8" t="s">
         <v>271</v>
       </c>
@@ -5115,7 +4553,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="8" t="s">
         <v>274</v>
       </c>
@@ -5138,7 +4576,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="8" t="s">
         <v>277</v>
       </c>
@@ -5161,53 +4599,53 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="2:8">
+      <c r="B52" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <v>1000</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <v>64201</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>281</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="2:8">
+      <c r="B53" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>8</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <v>20080506</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>283</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8">
       <c r="B54" s="8" t="s">
         <v>284</v>
       </c>
@@ -5230,7 +4668,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="B55" s="8" t="s">
         <v>286</v>
       </c>
@@ -5253,7 +4691,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56" s="8" t="s">
         <v>288</v>
       </c>
@@ -5276,7 +4714,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8">
       <c r="B57" s="8" t="s">
         <v>290</v>
       </c>
@@ -5299,7 +4737,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="B58" s="8" t="s">
         <v>292</v>
       </c>
@@ -5322,7 +4760,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="B59" s="8" t="s">
         <v>294</v>
       </c>
@@ -5345,7 +4783,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="B60" s="8" t="s">
         <v>296</v>
       </c>
@@ -5368,30 +4806,30 @@
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="2:8">
+      <c r="B61" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>1</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="9" t="s">
         <v>299</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="8" t="s">
         <v>300</v>
       </c>
@@ -5414,76 +4852,76 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="2:8">
+      <c r="B63" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>9</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="9">
         <v>0</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>304</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
+    <row r="64" spans="2:8">
+      <c r="B64" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
         <v>100</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="9">
         <v>10</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>306</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="2:8">
+      <c r="B65" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="9">
         <v>2144.913</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="9" t="s">
         <v>309</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8">
       <c r="B66" s="8" t="s">
         <v>310</v>
       </c>
@@ -5506,7 +4944,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8">
       <c r="B67" s="8" t="s">
         <v>313</v>
       </c>
@@ -5529,30 +4967,30 @@
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+    <row r="68" spans="2:8">
+      <c r="B68" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="9">
         <v>1000</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="9" t="s">
         <v>318</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8">
       <c r="B69" s="8" t="s">
         <v>319</v>
       </c>
@@ -5575,7 +5013,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8">
       <c r="B70" s="8" t="s">
         <v>321</v>
       </c>
@@ -5599,6 +5037,625 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20">
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20">
+      <c r="B17" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="8">
+        <v>400</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="8">
+        <v>20200517</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1101110028939</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20">
+      <c r="B28" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20">
+      <c r="B29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20">
+      <c r="B30" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20">
+      <c r="B31" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="3">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20">
+      <c r="B32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="20">
+      <c r="B33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20">
+      <c r="B34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20">
+      <c r="B35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="3">
+        <v>20200423</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20">
+      <c r="B36" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="14">
+        <v>13</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1353110003920</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="20">
+      <c r="B37" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="20">
+      <c r="B38" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>13</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1353110003920</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="20">
+      <c r="B39" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5608,24 +5665,24 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>221</v>
       </c>
@@ -5654,7 +5711,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5683,7 +5740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -5715,7 +5772,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5747,7 +5804,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -5779,7 +5836,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -5808,12 +5865,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="20">
       <c r="B12" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="7" t="s">
         <v>202</v>
       </c>
@@ -5833,7 +5890,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="8" t="s">
         <v>234</v>
       </c>
@@ -5853,7 +5910,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="8" t="s">
         <v>216</v>
       </c>
@@ -5873,7 +5930,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="8" t="s">
         <v>214</v>
       </c>
@@ -5893,7 +5950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="8" t="s">
         <v>237</v>
       </c>
@@ -5913,7 +5970,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="8" t="s">
         <v>221</v>
       </c>
@@ -5933,47 +5990,47 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>13</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <v>1101110035835</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>150</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5981,12 +6038,12 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="20">
       <c r="B22" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="5" t="s">
         <v>202</v>
       </c>
@@ -6006,7 +6063,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="8" t="s">
         <v>208</v>
       </c>
@@ -6029,7 +6086,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
         <v>211</v>
       </c>
@@ -6052,7 +6109,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
         <v>214</v>
       </c>
@@ -6075,7 +6132,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="8" t="s">
         <v>216</v>
       </c>
@@ -6098,7 +6155,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="8" t="s">
         <v>219</v>
       </c>
@@ -6121,7 +6178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="8" t="s">
         <v>221</v>
       </c>
@@ -6144,122 +6201,122 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="2:8">
+      <c r="B30" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>13</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <v>1101110035835</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <v>150</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:8">
+      <c r="B32" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>8</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="2:8">
+      <c r="B33" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>500</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="2:8">
+      <c r="B34" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>500</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="8" t="s">
         <v>337</v>
       </c>
@@ -6282,7 +6339,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36" s="8" t="s">
         <v>338</v>
       </c>
@@ -6305,7 +6362,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" s="8" t="s">
         <v>341</v>
       </c>
@@ -6329,6 +6386,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6337,9 +6395,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA31F09-3E84-6444-A3C5-792E0D54D1DC}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -6354,7 +6414,7 @@
     <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="C1" t="s">
         <v>221</v>
       </c>
@@ -6398,7 +6458,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6442,8 +6502,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="17" t="s">
         <v>399</v>
       </c>
       <c r="B3" s="12">
@@ -6492,8 +6552,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:16">
+      <c r="A4" s="17"/>
       <c r="B4" s="12">
         <v>1</v>
       </c>
@@ -6540,8 +6600,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:16">
+      <c r="A5" s="17"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -6588,8 +6648,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:16">
+      <c r="A6" s="17"/>
       <c r="B6" s="12">
         <v>3</v>
       </c>
@@ -6636,8 +6696,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="17"/>
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -6684,8 +6744,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:16">
+      <c r="A8" s="17"/>
       <c r="B8" s="12">
         <v>5</v>
       </c>
@@ -6732,8 +6792,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="17"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -6780,8 +6840,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:16">
+      <c r="A10" s="17"/>
       <c r="B10" s="12">
         <v>7</v>
       </c>
@@ -6828,8 +6888,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="17"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -6876,8 +6936,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:16">
+      <c r="A12" s="17"/>
       <c r="B12" s="12">
         <v>9</v>
       </c>
@@ -6924,8 +6984,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B13" s="10"/>
@@ -6933,8 +6993,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="13" t="s">
         <v>426</v>
       </c>
       <c r="B14" s="10"/>
@@ -6942,8 +7002,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="17" t="s">
         <v>427</v>
       </c>
       <c r="B15" s="12">
@@ -6992,8 +7052,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="17"/>
       <c r="B16" s="12">
         <v>1</v>
       </c>
@@ -7040,8 +7100,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="17"/>
       <c r="B17" s="12">
         <v>2</v>
       </c>
@@ -7088,8 +7148,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="17"/>
       <c r="B18" s="12">
         <v>3</v>
       </c>
@@ -7136,8 +7196,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="17"/>
       <c r="B19" s="12">
         <v>4</v>
       </c>
@@ -7184,8 +7244,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:16">
+      <c r="A20" s="17"/>
       <c r="B20" s="12">
         <v>5</v>
       </c>
@@ -7232,8 +7292,8 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="17"/>
       <c r="B21" s="12">
         <v>6</v>
       </c>
@@ -7280,8 +7340,8 @@
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:16">
+      <c r="A22" s="17"/>
       <c r="B22" s="12">
         <v>7</v>
       </c>
@@ -7328,8 +7388,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:16">
+      <c r="A23" s="17"/>
       <c r="B23" s="12">
         <v>8</v>
       </c>
@@ -7376,8 +7436,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:16">
+      <c r="A24" s="17"/>
       <c r="B24" s="12">
         <v>9</v>
       </c>
@@ -7424,8 +7484,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:16">
+      <c r="A25" s="17"/>
       <c r="B25" s="12">
         <v>10</v>
       </c>
@@ -7472,8 +7532,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:16">
+      <c r="A26" s="17"/>
       <c r="B26" s="12">
         <v>11</v>
       </c>
@@ -7520,8 +7580,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="17"/>
       <c r="B27" s="12">
         <v>12</v>
       </c>
@@ -7568,8 +7628,8 @@
         <v>534</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:16">
+      <c r="A28" s="17"/>
       <c r="B28" s="12">
         <v>13</v>
       </c>
@@ -7616,8 +7676,8 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="17" t="s">
         <v>812</v>
       </c>
       <c r="B29" s="12">
@@ -7666,8 +7726,8 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:16">
+      <c r="A30" s="17"/>
       <c r="B30" s="12">
         <v>1</v>
       </c>
@@ -7714,8 +7774,8 @@
         <v>562</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:16">
+      <c r="A31" s="17"/>
       <c r="B31" s="12">
         <v>2</v>
       </c>
@@ -7762,8 +7822,8 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:16">
+      <c r="A32" s="17"/>
       <c r="B32" s="12">
         <v>3</v>
       </c>
@@ -7810,8 +7870,8 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:16">
+      <c r="A33" s="17"/>
       <c r="B33" s="12">
         <v>4</v>
       </c>
@@ -7858,8 +7918,8 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:16">
+      <c r="A34" s="17"/>
       <c r="B34" s="12">
         <v>5</v>
       </c>
@@ -7906,8 +7966,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+    <row r="35" spans="1:16">
+      <c r="A35" s="17"/>
       <c r="B35" s="12">
         <v>6</v>
       </c>
@@ -7954,8 +8014,8 @@
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+    <row r="36" spans="1:16">
+      <c r="A36" s="17"/>
       <c r="B36" s="12">
         <v>7</v>
       </c>
@@ -8002,8 +8062,8 @@
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:16">
+      <c r="A37" s="17"/>
       <c r="B37" s="12">
         <v>8</v>
       </c>
@@ -8050,8 +8110,8 @@
         <v>623</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:16">
+      <c r="A38" s="17"/>
       <c r="B38" s="12">
         <v>9</v>
       </c>
@@ -8098,8 +8158,8 @@
         <v>633</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:16">
+      <c r="A39" s="17"/>
       <c r="B39" s="12">
         <v>10</v>
       </c>
@@ -8146,8 +8206,8 @@
         <v>641</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:16">
+      <c r="A40" s="17"/>
       <c r="B40" s="12">
         <v>11</v>
       </c>
@@ -8194,8 +8254,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:16">
+      <c r="A41" s="17"/>
       <c r="B41" s="12">
         <v>12</v>
       </c>
@@ -8242,8 +8302,8 @@
         <v>659</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+    <row r="42" spans="1:16">
+      <c r="A42" s="17"/>
       <c r="B42" s="12">
         <v>13</v>
       </c>
@@ -8290,8 +8350,8 @@
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:16">
+      <c r="A43" s="17"/>
       <c r="B43" s="12">
         <v>14</v>
       </c>
@@ -8338,8 +8398,8 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+    <row r="44" spans="1:16">
+      <c r="A44" s="17"/>
       <c r="B44" s="12">
         <v>15</v>
       </c>
@@ -8386,8 +8446,8 @@
         <v>687</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:16">
+      <c r="A45" s="17"/>
       <c r="B45" s="12">
         <v>16</v>
       </c>
@@ -8434,8 +8494,8 @@
         <v>695</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:16">
+      <c r="A46" s="17"/>
       <c r="B46" s="12">
         <v>17</v>
       </c>
@@ -8482,8 +8542,8 @@
         <v>705</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:16">
+      <c r="A47" s="17"/>
       <c r="B47" s="12">
         <v>18</v>
       </c>
@@ -8530,8 +8590,8 @@
         <v>713</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+    <row r="48" spans="1:16">
+      <c r="A48" s="17"/>
       <c r="B48" s="12">
         <v>19</v>
       </c>
@@ -8578,8 +8638,8 @@
         <v>723</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+    <row r="49" spans="1:16">
+      <c r="A49" s="17"/>
       <c r="B49" s="12">
         <v>20</v>
       </c>
@@ -8626,8 +8686,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+    <row r="50" spans="1:16">
+      <c r="A50" s="17"/>
       <c r="B50" s="12">
         <v>21</v>
       </c>
@@ -8674,8 +8734,8 @@
         <v>741</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+    <row r="51" spans="1:16">
+      <c r="A51" s="17"/>
       <c r="B51" s="12">
         <v>22</v>
       </c>
@@ -8722,8 +8782,8 @@
         <v>748</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+    <row r="52" spans="1:16">
+      <c r="A52" s="17"/>
       <c r="B52" s="12">
         <v>23</v>
       </c>
@@ -8770,8 +8830,8 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+    <row r="53" spans="1:16">
+      <c r="A53" s="17"/>
       <c r="B53" s="12">
         <v>24</v>
       </c>
@@ -8818,8 +8878,8 @@
         <v>766</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+    <row r="54" spans="1:16">
+      <c r="A54" s="17"/>
       <c r="B54" s="12">
         <v>25</v>
       </c>
@@ -8866,8 +8926,8 @@
         <v>776</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+    <row r="55" spans="1:16">
+      <c r="A55" s="17"/>
       <c r="B55" s="12">
         <v>26</v>
       </c>
@@ -8914,8 +8974,8 @@
         <v>784</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
+    <row r="56" spans="1:16">
+      <c r="A56" s="17"/>
       <c r="B56" s="12">
         <v>27</v>
       </c>
@@ -8962,8 +9022,8 @@
         <v>794</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
+    <row r="57" spans="1:16">
+      <c r="A57" s="17"/>
       <c r="B57" s="12">
         <v>28</v>
       </c>
@@ -9010,8 +9070,8 @@
         <v>802</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:16">
+      <c r="A58" s="17"/>
       <c r="B58" s="12">
         <v>29</v>
       </c>
@@ -9058,21 +9118,21 @@
         <v>806</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="B61" s="10"/>
     </row>
-    <row r="63" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="20">
       <c r="C63" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="C64" s="7" t="s">
         <v>202</v>
       </c>
@@ -9092,7 +9152,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8">
       <c r="C65" s="8" t="s">
         <v>214</v>
       </c>
@@ -9112,7 +9172,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8">
       <c r="C66" s="8" t="s">
         <v>216</v>
       </c>
@@ -9132,7 +9192,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8">
       <c r="C67" s="8" t="s">
         <v>237</v>
       </c>
@@ -9152,7 +9212,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8">
       <c r="C68" s="8" t="s">
         <v>234</v>
       </c>
@@ -9172,7 +9232,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8">
       <c r="C69" s="8" t="s">
         <v>223</v>
       </c>
@@ -9192,7 +9252,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8">
       <c r="C70" s="8" t="s">
         <v>343</v>
       </c>
@@ -9212,7 +9272,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8">
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -9220,12 +9280,12 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="3:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" ht="20">
       <c r="C72" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8">
       <c r="C73" s="5" t="s">
         <v>202</v>
       </c>
@@ -9245,7 +9305,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8">
       <c r="C74" s="8" t="s">
         <v>208</v>
       </c>
@@ -9265,7 +9325,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8">
       <c r="C75" s="8" t="s">
         <v>211</v>
       </c>
@@ -9285,7 +9345,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8">
       <c r="C76" s="8" t="s">
         <v>214</v>
       </c>
@@ -9305,7 +9365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8">
       <c r="C77" s="8" t="s">
         <v>216</v>
       </c>
@@ -9325,7 +9385,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8">
       <c r="C78" s="8" t="s">
         <v>219</v>
       </c>
@@ -9345,7 +9405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8">
       <c r="C79" s="8" t="s">
         <v>221</v>
       </c>
@@ -9365,7 +9425,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8">
       <c r="C80" s="8" t="s">
         <v>223</v>
       </c>
@@ -9385,7 +9445,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8">
       <c r="C81" s="8" t="s">
         <v>343</v>
       </c>
@@ -9405,7 +9465,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8">
       <c r="C82" s="8" t="s">
         <v>346</v>
       </c>
@@ -9425,7 +9485,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8">
       <c r="C83" s="8" t="s">
         <v>350</v>
       </c>
@@ -9445,7 +9505,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8">
       <c r="C84" s="8" t="s">
         <v>354</v>
       </c>
@@ -9465,7 +9525,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8">
       <c r="C85" s="8" t="s">
         <v>357</v>
       </c>
@@ -9485,7 +9545,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8">
       <c r="C86" s="8" t="s">
         <v>360</v>
       </c>
@@ -9505,7 +9565,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8">
       <c r="C87" s="8" t="s">
         <v>363</v>
       </c>
@@ -9525,7 +9585,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8">
       <c r="C88" s="8" t="s">
         <v>366</v>
       </c>
@@ -9545,7 +9605,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:8">
       <c r="C89" s="8" t="s">
         <v>370</v>
       </c>
@@ -9565,7 +9625,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:8">
       <c r="C90" s="8" t="s">
         <v>373</v>
       </c>
@@ -9585,7 +9645,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:8">
       <c r="C91" s="8" t="s">
         <v>376</v>
       </c>
@@ -9605,7 +9665,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:8">
       <c r="C92" s="8" t="s">
         <v>379</v>
       </c>
@@ -9631,6 +9691,82 @@
     <mergeCell ref="A15:A28"/>
     <mergeCell ref="A29:A58"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1562856F-2CD5-884A-BE88-3584302CAE7F}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="83.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/금융위원회_기업기본정보.xlsx
+++ b/금융위원회_기업기본정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reejungkim/Documents/Git/OpenAPI_Ministry_of_land/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D56F5-0FDA-CB4D-889B-0EB037EEF639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5258408-2D75-2145-BBDE-F989B27EAF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="26860" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43520" yWindow="-4360" windowWidth="28900" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기업개요 조회" sheetId="2" r:id="rId1"/>
@@ -2966,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C05F39-2FE7-164E-82D1-C86B85CDB1BB}">
   <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4991,22 +4991,22 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="9">
         <v>8</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="9">
         <v>1039197</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="9" t="s">
         <v>320</v>
       </c>
       <c r="H69" s="8" t="s">
@@ -5046,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6395,8 +6395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA31F09-3E84-6444-A3C5-792E0D54D1DC}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H81" sqref="C81:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -9446,22 +9446,22 @@
       </c>
     </row>
     <row r="81" spans="3:8">
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="9">
         <v>4</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="9">
         <v>2019</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="9" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9486,62 +9486,62 @@
       </c>
     </row>
     <row r="83" spans="3:8">
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="9">
         <v>100</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H83" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="84" spans="3:8">
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="9">
         <v>0</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="9" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="85" spans="3:8">
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="9">
         <v>6455213910282</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="9" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9586,82 +9586,82 @@
       </c>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="9">
         <v>134769427547911</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="89" spans="3:8">
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="9">
         <v>41360535596393</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="90" spans="3:8">
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="9">
         <v>93408891951518</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="9">
         <v>964806250000</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="9" t="s">
         <v>378</v>
       </c>
     </row>
